--- a/chats/5493874145518@c.us.xlsx
+++ b/chats/5493874145518@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Fecha</t>
   </si>
@@ -105,6 +105,24 @@
   </si>
   <si>
     <t>09-06-2021 10:05</t>
+  </si>
+  <si>
+    <t>06-07-2021 12:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*🤖 Si le quedó una duda envieme un mensaje con algunos de los siguientes números para tener mas informacion*
+ *IMPORTANTE LEER*: escriba el numero sin letras o números adicionales, luego envie el mensaje y le llegara la info que precisa.
+     • *Cómo inscribirse de manera gratuita*: envíe 1
+     • *Cómo inscribirse de forma paga (con certificado):* envie 2
+     • *cómo son los cursos, duración, pasos a seguir etc.:* envie 3
+     • *Horarios del encuentro virtual de cada curso:* envie 4
+     • *De donde somos:* envie 5
+     • *Si las clases son virtuales:* envie 6
+     • *Cuanto tarda en llegar el certificado:* envie 7
+     • *Modelos de certificados:* envie 8
+     • Escriba la palabra *instructor* si desea hablar un tema en especifico con el instructor
+ *🤖 IMPORTANTE* si contesta algo diferente a lo de esta lista no podre responderle de manera adecuada. Recuerde que si desea hablar con el instructor debe enviar la palabra *instructor* como mensaje
+          </t>
   </si>
 </sst>
 </file>
@@ -481,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,6 +590,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
